--- a/TNR_PREJDD/RO/PREJDD.RO.ORG.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.ORG.xlsx
@@ -7,20 +7,18 @@
     <sheet state="visible" name="001" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="001A" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'001'!$A$1:$AE$40</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjoZZ3n98k1J7IFdxpdh5ljnsLv8Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miPkodjsnP3atZc2+voj8RLByEW/w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -386,15 +384,6 @@
   </si>
   <si>
     <t>ORG37</t>
-  </si>
-  <si>
-    <t>ORG38</t>
-  </si>
-  <si>
-    <t>RO.ACT.005.FON.01.A</t>
-  </si>
-  <si>
-    <t>ORG39</t>
   </si>
   <si>
     <t>ID_CODUTI</t>
@@ -2091,7 +2080,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="11" t="str">
-        <f t="shared" ref="B2:B40" si="1">G2</f>
+        <f t="shared" ref="B2:B38" si="1">G2</f>
         <v>RO.ACT.001.CRE.01.............</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -2107,7 +2096,7 @@
         <v>1001.0</v>
       </c>
       <c r="G2" s="14" t="str">
-        <f t="shared" ref="G2:G40" si="2">CONCATENATE(UPPER(C2),REPT(".",30-LEN(C2)))</f>
+        <f t="shared" ref="G2:G38" si="2">CONCATENATE(UPPER(C2),REPT(".",30-LEN(C2)))</f>
         <v>RO.ACT.001.CRE.01.............</v>
       </c>
       <c r="H2" s="15">
@@ -2150,7 +2139,7 @@
         <v>41</v>
       </c>
       <c r="U2" s="11" t="str">
-        <f t="shared" ref="U2:U40" si="3">C2</f>
+        <f t="shared" ref="U2:U38" si="3">C2</f>
         <v>RO.ACT.001.CRE.01</v>
       </c>
       <c r="V2" s="12" t="s">
@@ -5713,200 +5702,70 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>RO.ACT.005.FON.01.............</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="13">
-        <v>1038.0</v>
-      </c>
-      <c r="G39" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>RO.ACT.005.FON.01.............</v>
-      </c>
-      <c r="H39" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="I39" s="15">
-        <v>38.0</v>
-      </c>
-      <c r="J39" s="13">
-        <v>2020.0</v>
-      </c>
-      <c r="K39" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="P39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q39" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="R39" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T39" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U39" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>RO.ACT.005.FON.01</v>
-      </c>
-      <c r="V39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W39" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="X39" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y39" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z39" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE39" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>RO.ACT.005.FON.01.A...........</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="15">
-        <v>1039.0</v>
-      </c>
-      <c r="G40" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>RO.ACT.005.FON.01.A...........</v>
-      </c>
-      <c r="H40" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="I40" s="15">
-        <v>39.0</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="P40" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U40" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>RO.ACT.005.FON.01.A</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W40" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="X40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD40" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE40" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21"/>
@@ -37060,7 +36919,7 @@
       <c r="AD984" s="21"/>
       <c r="AE984" s="21"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985">
       <c r="A985" s="21"/>
       <c r="B985" s="22"/>
       <c r="C985" s="22"/>
@@ -37093,7 +36952,7 @@
       <c r="AD985" s="21"/>
       <c r="AE985" s="21"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986">
       <c r="A986" s="21"/>
       <c r="B986" s="22"/>
       <c r="C986" s="22"/>
@@ -37423,74 +37282,7 @@
       <c r="AD995" s="21"/>
       <c r="AE995" s="21"/>
     </row>
-    <row r="996">
-      <c r="A996" s="21"/>
-      <c r="B996" s="22"/>
-      <c r="C996" s="22"/>
-      <c r="D996" s="22"/>
-      <c r="E996" s="22"/>
-      <c r="F996" s="23"/>
-      <c r="G996" s="22"/>
-      <c r="H996" s="23"/>
-      <c r="I996" s="23"/>
-      <c r="J996" s="23"/>
-      <c r="K996" s="24"/>
-      <c r="L996" s="22"/>
-      <c r="M996" s="21"/>
-      <c r="N996" s="21"/>
-      <c r="O996" s="21"/>
-      <c r="P996" s="21"/>
-      <c r="Q996" s="23"/>
-      <c r="R996" s="21"/>
-      <c r="S996" s="22"/>
-      <c r="T996" s="22"/>
-      <c r="U996" s="22"/>
-      <c r="V996" s="22"/>
-      <c r="W996" s="24"/>
-      <c r="X996" s="22"/>
-      <c r="Y996" s="22"/>
-      <c r="Z996" s="21"/>
-      <c r="AA996" s="22"/>
-      <c r="AB996" s="21"/>
-      <c r="AC996" s="21"/>
-      <c r="AD996" s="21"/>
-      <c r="AE996" s="21"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="21"/>
-      <c r="B997" s="22"/>
-      <c r="C997" s="22"/>
-      <c r="D997" s="22"/>
-      <c r="E997" s="22"/>
-      <c r="F997" s="23"/>
-      <c r="G997" s="22"/>
-      <c r="H997" s="23"/>
-      <c r="I997" s="23"/>
-      <c r="J997" s="23"/>
-      <c r="K997" s="24"/>
-      <c r="L997" s="22"/>
-      <c r="M997" s="21"/>
-      <c r="N997" s="21"/>
-      <c r="O997" s="21"/>
-      <c r="P997" s="21"/>
-      <c r="Q997" s="23"/>
-      <c r="R997" s="21"/>
-      <c r="S997" s="22"/>
-      <c r="T997" s="22"/>
-      <c r="U997" s="22"/>
-      <c r="V997" s="22"/>
-      <c r="W997" s="24"/>
-      <c r="X997" s="22"/>
-      <c r="Y997" s="22"/>
-      <c r="Z997" s="21"/>
-      <c r="AA997" s="22"/>
-      <c r="AB997" s="21"/>
-      <c r="AC997" s="21"/>
-      <c r="AD997" s="21"/>
-      <c r="AE997" s="21"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AE$40"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -37533,7 +37325,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>11</v>
@@ -38034,32 +37826,6 @@
       </c>
       <c r="H20" s="31">
         <v>1033.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="28">
-        <v>2020.0</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="30">
-        <v>10.0</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="31">
-        <v>1038.0</v>
       </c>
     </row>
   </sheetData>
